--- a/Story Ideas/CharacterSpells/Spells.xlsx
+++ b/Story Ideas/CharacterSpells/Spells.xlsx
@@ -307,7 +307,7 @@
     <t xml:space="preserve">Confound</t>
   </si>
   <si>
-    <t xml:space="preserve">Palpatation</t>
+    <t xml:space="preserve">Palpitation</t>
   </si>
   <si>
     <t xml:space="preserve">Sudden Sound</t>
@@ -1470,7 +1470,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1508,7 +1508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1518,11 +1518,8 @@
       <c r="C2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1532,11 +1529,8 @@
       <c r="C3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1546,11 +1540,8 @@
       <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1559,9 +1550,6 @@
       </c>
       <c r="C5" s="4" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1614,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1650,7 +1638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1694,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1705,7 +1693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1730,7 +1718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1741,7 +1729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -1752,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1774,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1785,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -1829,7 +1817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -1851,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1882,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1903,9 +1891,6 @@
       <c r="C34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H34" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
@@ -1917,11 +1902,8 @@
       <c r="C35" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -1932,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -1943,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -1954,7 +1936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -1965,7 +1947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
         <v>49</v>
       </c>
@@ -1976,7 +1958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
         <v>50</v>
       </c>
@@ -1987,7 +1969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -1998,7 +1980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>52</v>
       </c>
@@ -2020,7 +2002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>54</v>
       </c>
@@ -2042,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>56</v>
       </c>
@@ -2064,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>58</v>
       </c>
@@ -2075,7 +2057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>59</v>
       </c>
@@ -2086,7 +2068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>60</v>
       </c>
@@ -2108,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
@@ -2119,7 +2101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -2130,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -2141,7 +2123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -2180,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>69</v>
       </c>
@@ -2208,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>71</v>
       </c>
@@ -2219,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>72</v>
       </c>
@@ -2230,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
@@ -2241,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>74</v>
       </c>
@@ -2252,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>75</v>
       </c>
@@ -2274,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>77</v>
       </c>
@@ -2307,7 +2289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>80</v>
       </c>
@@ -2351,7 +2333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>84</v>
       </c>
@@ -2362,7 +2344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>85</v>
       </c>
@@ -2373,7 +2355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>86</v>
       </c>
@@ -2384,7 +2366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>87</v>
       </c>
@@ -2395,7 +2377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>88</v>
       </c>
@@ -2406,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>89</v>
       </c>
@@ -2453,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
         <v>94</v>
       </c>
@@ -2489,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
         <v>97</v>
       </c>
@@ -2503,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
         <v>98</v>
       </c>
@@ -2525,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>100</v>
       </c>
@@ -2536,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>101</v>
       </c>
@@ -2547,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>102</v>
       </c>
@@ -2561,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>103</v>
       </c>
@@ -2605,7 +2587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>107</v>
       </c>
@@ -2627,7 +2609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>109</v>
       </c>
@@ -2671,7 +2653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
         <v>113</v>
       </c>
@@ -2726,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>118</v>
       </c>
@@ -2748,7 +2730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>120</v>
       </c>
@@ -2794,11 +2776,14 @@
       <c r="G112" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="H112" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="I112" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
         <v>125</v>
       </c>
@@ -2809,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
         <v>126</v>
       </c>
@@ -2891,6 +2876,9 @@
       <c r="C120" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="H120" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
@@ -2925,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
         <v>136</v>
       </c>
@@ -2936,7 +2924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="5" t="s">
         <v>137</v>
       </c>
@@ -2947,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
         <v>138</v>
       </c>
@@ -2969,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
         <v>140</v>
       </c>
@@ -3024,7 +3012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
         <v>145</v>
       </c>
@@ -3035,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>146</v>
       </c>
@@ -3057,7 +3045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -3123,7 +3111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
@@ -3145,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
@@ -3156,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
@@ -3178,7 +3166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
         <v>159</v>
       </c>
@@ -3189,7 +3177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="s">
         <v>160</v>
       </c>
@@ -3200,7 +3188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>161</v>
       </c>
@@ -3211,7 +3199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
         <v>162</v>
       </c>
@@ -3244,7 +3232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
@@ -3266,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
         <v>168</v>
       </c>
@@ -3294,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
         <v>170</v>
       </c>
@@ -3308,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
         <v>171</v>
       </c>
@@ -3330,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>173</v>
       </c>
@@ -3389,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
         <v>177</v>
       </c>
@@ -3411,7 +3399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
         <v>179</v>
       </c>
@@ -3444,7 +3432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
         <v>182</v>
       </c>
@@ -3488,7 +3476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
         <v>186</v>
       </c>
@@ -3499,7 +3487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
         <v>187</v>
       </c>
@@ -3532,7 +3520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>190</v>
       </c>
@@ -3543,7 +3531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>191</v>
       </c>
@@ -3554,7 +3542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
         <v>192</v>
       </c>
@@ -3565,7 +3553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
         <v>193</v>
       </c>
@@ -3587,7 +3575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
         <v>195</v>
       </c>
@@ -3601,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>197</v>
       </c>
@@ -3615,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>198</v>
       </c>
@@ -3626,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
         <v>199</v>
       </c>
@@ -3668,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
         <v>202</v>
       </c>
@@ -3690,7 +3678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
         <v>204</v>
       </c>
@@ -3723,7 +3711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
         <v>207</v>
       </c>
@@ -3745,7 +3733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
         <v>209</v>
       </c>
@@ -3756,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>210</v>
       </c>
@@ -3778,7 +3766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>212</v>
       </c>
@@ -3800,7 +3788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
         <v>214</v>
       </c>
@@ -3833,7 +3821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
         <v>217</v>
       </c>
@@ -3855,7 +3843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>219</v>
       </c>
@@ -3866,7 +3854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
         <v>220</v>
       </c>
@@ -3888,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
         <v>223</v>
       </c>
@@ -3896,9 +3884,6 @@
         <v>221</v>
       </c>
       <c r="C208" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H208" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
         <v>225</v>
       </c>
@@ -3926,8 +3911,11 @@
       <c r="E210" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H210" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
         <v>226</v>
       </c>
@@ -3952,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
         <v>228</v>
       </c>
@@ -4029,7 +4017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
         <v>235</v>
       </c>
@@ -4040,7 +4028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="5" t="s">
         <v>236</v>
       </c>
@@ -4084,7 +4072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
         <v>240</v>
       </c>
@@ -4095,7 +4083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
         <v>241</v>
       </c>
@@ -4117,7 +4105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
         <v>243</v>
       </c>
@@ -4139,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
         <v>245</v>
       </c>
@@ -4150,7 +4138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
         <v>246</v>
       </c>
@@ -4161,7 +4149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
         <v>247</v>
       </c>
@@ -4172,7 +4160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
         <v>248</v>
       </c>
@@ -4194,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="5" t="s">
         <v>251</v>
       </c>
@@ -4205,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
         <v>252</v>
       </c>
@@ -4216,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
         <v>253</v>
       </c>
@@ -4227,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
         <v>254</v>
       </c>
@@ -4249,7 +4237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
         <v>256</v>
       </c>
@@ -4260,7 +4248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="5" t="s">
         <v>257</v>
       </c>
@@ -4271,7 +4259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="5" t="s">
         <v>258</v>
       </c>
@@ -4293,7 +4281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
         <v>260</v>
       </c>
@@ -4315,7 +4303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
         <v>262</v>
       </c>
@@ -4326,7 +4314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
         <v>263</v>
       </c>
@@ -4348,7 +4336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
         <v>265</v>
       </c>
@@ -4370,7 +4358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
         <v>267</v>
       </c>
@@ -4381,7 +4369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="5" t="s">
         <v>268</v>
       </c>
@@ -4392,7 +4380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
         <v>269</v>
       </c>
@@ -4403,7 +4391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
         <v>270</v>
       </c>
@@ -4447,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
         <v>275</v>
       </c>
@@ -4461,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
         <v>276</v>
       </c>
@@ -4472,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
         <v>277</v>
       </c>
@@ -4494,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="5" t="s">
         <v>279</v>
       </c>
@@ -4505,7 +4493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="5" t="s">
         <v>280</v>
       </c>
@@ -4516,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
         <v>281</v>
       </c>
@@ -4527,7 +4515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="5" t="s">
         <v>282</v>
       </c>
@@ -4538,7 +4526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="5" t="s">
         <v>283</v>
       </c>
@@ -4549,7 +4537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
         <v>284</v>
       </c>
@@ -4560,7 +4548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
         <v>285</v>
       </c>
@@ -4571,7 +4559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
         <v>286</v>
       </c>
@@ -4593,7 +4581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
         <v>288</v>
       </c>
@@ -4604,7 +4592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
         <v>289</v>
       </c>
@@ -4615,7 +4603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
         <v>290</v>
       </c>
@@ -4626,7 +4614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
         <v>291</v>
       </c>
@@ -4637,7 +4625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
         <v>292</v>
       </c>
@@ -4648,7 +4636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
         <v>293</v>
       </c>
@@ -4659,7 +4647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
         <v>294</v>
       </c>
@@ -4681,7 +4669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>296</v>
       </c>
@@ -4692,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
         <v>298</v>
       </c>
@@ -4706,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="5" t="s">
         <v>299</v>
       </c>
@@ -4717,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="5" t="s">
         <v>300</v>
       </c>
@@ -4728,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="5" t="s">
         <v>301</v>
       </c>
@@ -4739,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
         <v>302</v>
       </c>
@@ -4750,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="5" t="s">
         <v>303</v>
       </c>
@@ -4761,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
         <v>304</v>
       </c>
@@ -4772,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
         <v>305</v>
       </c>
@@ -4783,7 +4771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="5" t="s">
         <v>306</v>
       </c>
@@ -4794,7 +4782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
         <v>307</v>
       </c>
@@ -4805,7 +4793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="5" t="s">
         <v>308</v>
       </c>
@@ -4838,7 +4826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
         <v>311</v>
       </c>
@@ -4860,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="5" t="s">
         <v>313</v>
       </c>
@@ -4893,7 +4881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
         <v>316</v>
       </c>
@@ -4904,7 +4892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
         <v>317</v>
       </c>
@@ -4915,7 +4903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
         <v>318</v>
       </c>
@@ -4926,7 +4914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>319</v>
       </c>
@@ -4937,7 +4925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
         <v>320</v>
       </c>
@@ -4959,7 +4947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
         <v>322</v>
       </c>
@@ -4970,7 +4958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
         <v>323</v>
       </c>
@@ -4981,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
         <v>325</v>
       </c>
@@ -4995,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
         <v>326</v>
       </c>
@@ -5006,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>327</v>
       </c>
@@ -5028,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="5" t="s">
         <v>329</v>
       </c>
@@ -5039,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
         <v>330</v>
       </c>
@@ -5063,8 +5051,11 @@
       <c r="C312" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H312" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
         <v>332</v>
       </c>
@@ -5086,7 +5077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>334</v>
       </c>
@@ -5097,7 +5088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
         <v>335</v>
       </c>
@@ -5119,7 +5110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
         <v>337</v>
       </c>
@@ -5141,7 +5132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
         <v>339</v>
       </c>
@@ -5152,7 +5143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
         <v>340</v>
       </c>
@@ -5163,7 +5154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
         <v>341</v>
       </c>
@@ -5174,7 +5165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
         <v>342</v>
       </c>
@@ -5196,7 +5187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
         <v>344</v>
       </c>
@@ -5207,7 +5198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
         <v>345</v>
       </c>
@@ -5218,7 +5209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>346</v>
       </c>
@@ -5240,7 +5231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="5" t="s">
         <v>348</v>
       </c>
@@ -5265,7 +5256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
         <v>351</v>
       </c>
@@ -5279,7 +5270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
         <v>352</v>
       </c>
@@ -5304,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
         <v>354</v>
       </c>
@@ -5348,11 +5339,8 @@
       <c r="H336" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I336" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="337" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="s">
         <v>357</v>
       </c>
@@ -5374,7 +5362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
         <v>359</v>
       </c>
@@ -5396,7 +5384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
         <v>361</v>
       </c>
@@ -5407,7 +5395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
         <v>362</v>
       </c>
@@ -5418,7 +5406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
         <v>363</v>
       </c>
@@ -5429,7 +5417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
         <v>364</v>
       </c>
@@ -5451,7 +5439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
         <v>366</v>
       </c>
@@ -5473,7 +5461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
         <v>368</v>
       </c>
@@ -5484,7 +5472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
         <v>369</v>
       </c>
@@ -5495,7 +5483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
         <v>370</v>
       </c>
@@ -5506,7 +5494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
         <v>371</v>
       </c>
@@ -5550,7 +5538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="5" t="s">
         <v>375</v>
       </c>
@@ -5572,7 +5560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>377</v>
       </c>
@@ -5581,6 +5569,9 @@
       </c>
       <c r="C357" s="5" t="n">
         <v>0</v>
+      </c>
+      <c r="H357" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5614,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
         <v>381</v>
       </c>
@@ -5646,6 +5637,9 @@
       <c r="C362" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="H362" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
@@ -5658,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
         <v>385</v>
       </c>
@@ -5702,7 +5696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
         <v>389</v>
       </c>
@@ -5724,7 +5718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
         <v>391</v>
       </c>
@@ -5779,7 +5773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
         <v>396</v>
       </c>
@@ -5790,7 +5784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>397</v>
       </c>
@@ -5801,7 +5795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
         <v>398</v>
       </c>
@@ -5823,7 +5817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
         <v>400</v>
       </c>
@@ -5845,7 +5839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
         <v>402</v>
       </c>
@@ -5856,7 +5850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
         <v>403</v>
       </c>
@@ -5878,7 +5872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
         <v>405</v>
       </c>
